--- a/report_checklist.xlsx
+++ b/report_checklist.xlsx
@@ -456,7 +456,21 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.6120d2d81e38a330d2e1f18b7eabde1a516d0849a5088763d31de4c4e8c827d3.c934c3ffab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve"> l'utente può proseguire  a produrre il documento essendo i due processi di produzione ed invio indipendenti</t>
+    <t>L'invio dei referti all'FSE avviente tramite la gestione di una coda interattiva richiamabile da apposito menù in varie momenti della giornata
+ ad esempio a seguito di una sessione di validazioe e firma.
+ Nella gestione documentale integrata nell'applicatico è stato aggiunto un campo a valorizzare lo stato del documento
+ rispetto all'invio FSE TfseStato=(fseNessuno,fseDaInviare,fseInviato,fseDaSostituire,fseCancellato,fseValidato);.
+ La coda viene popolata da tutti i documenti in stato FSEDaInviare e FSEDaSostituire ecc. 
+ Premesso che il CDA viene creato al momento stesso della generazione del PDF per evitare che i dati del CDA non siano uguali a quelli del PDF,
+ qualora l'errore si verifichasse nella trasmissione lo stato rimane in fseDaInviare ed il messaggio di errore contenuto 
+ nella risposta visualizzato all'operatore che sta facendo l'invio. 
+ In tal caso è necessario correggere l'errore, creare un documento aggiorntao contenente il nuovo CDA e rinviare.
+ Solo in caso di esito positivo lo stato passa ad FSEInviato. 
+ I documenti in stato FSEDaInviare vengono riproposti automaticamente ad ogni nuovo invio batch in modo che non vengano bypassati.
+ Non è possibile rinviare un documento errato senza che non se ne abbia contezza,corretto e ricreato, anche perchè si otterrebbe di nuovo
+ lo stesso messaggio di errore.
+ In caso di errore livello applicatico BUG, tipo errore di creazione del JWT ovviamente va fatta una segnalazione al nostro HelpDesk, 
+ ma questa eventualità è quasi impossibile una volta testato l'applicativo.  L'utente può proseguire  a produrre il documento essendo i due processi di produzione ed invio indipendenti.</t>
   </si>
 </sst>
 </file>
@@ -718,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -765,6 +779,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,7 +799,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1002,15 +1020,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1032,7 +1050,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1055,14 +1073,14 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1081,14 +1099,14 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1107,12 +1125,12 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1131,12 +1149,12 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1154,9 +1172,9 @@
       <c r="S6" s="1"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+    <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1176,7 +1194,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1260,7 +1278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1306,7 +1324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -1352,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -1398,7 +1416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -1444,7 +1462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -1490,7 +1508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>28</v>
       </c>
@@ -1534,7 +1552,7 @@
       <c r="O15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="28" t="s">
         <v>132</v>
       </c>
       <c r="Q15" s="10"/>
@@ -1544,7 +1562,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>36</v>
       </c>
@@ -1588,7 +1606,7 @@
       <c r="O16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="28" t="s">
         <v>132</v>
       </c>
       <c r="Q16" s="10"/>
@@ -1598,7 +1616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>44</v>
       </c>
@@ -1644,7 +1662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>52</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>53</v>
       </c>
@@ -1752,7 +1770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>54</v>
       </c>
@@ -1806,7 +1824,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>55</v>
       </c>
@@ -1844,7 +1862,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>56</v>
       </c>
@@ -1882,7 +1900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>57</v>
       </c>
@@ -1936,7 +1954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>58</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>59</v>
       </c>
@@ -2044,7 +2062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>60</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>61</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>62</v>
       </c>
@@ -2205,6 +2223,9 @@
       <c r="T28" s="13" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="33" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/report_checklist.xlsx
+++ b/report_checklist.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPA\Desktop\"/>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -199,7 +199,7 @@
   <si>
     <t>Precondizioni:
 Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-Descrizione di Business del caso di test: 
+Descrizione di Business del caso di test:
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
   </si>
@@ -216,46 +216,60 @@
     <t>Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403</t>
   </si>
   <si>
-    <t>NO</t>
+    <t xml:space="preserve"> L'invio dei referti all'FSE avviente tramite la gestione di una coda interattiva richiamabile da apposito menù in varie momenti della giornata
+ ad esempio a seguito di una sessione di validazioe e firma.
+ Nella gestione documentale integrata nell'applicatico è stato aggiunto un campo a valorizzare lo stato del documento
+ rispetto all'invio FSE TfseStato=(fseNessuno,fseDaInviare,fseInviato,fseDaSostituire,fseCancellato,fseValidato);.
+ La coda viene popolata da tutti i documenti in stato FSEDaInviare e FSEDaSostituire ecc.
+ Premesso che il CDA viene creato al momento stesso della generazione del PDF per evitare che i dati del CDA non siano uguali a quelli del PDF,
+ qualora l'errore si verifichasse nella trasmissione lo stato rimane in fseDaInviare ed il messaggio di errore contenuto
+ nella risposta visualizzato all'operatore che sta facendo l'invio.
+ In tal caso è necessario correggere l'errore, creare un documento aggiorntao contenente il nuovo CDA e rinviare.
+ Solo in caso di esito positivo lo stato passa ad FSEInviato.
+ I documenti in stato FSEDaInviare vengono riproposti automaticamente ad ogni nuovo invio batch in modo che non vengano bypassati.
+ Non è possibile rinviare un documento errato senza che non se ne abbia contezza,corretto e ricreato, anche perchè si otterrebbe di nuovo
+ lo stesso messaggio di errore.
+ In caso di errore livello applicatico BUG, tipo errore di creazione del JWT ovviamente va fatta una segnalazione al nostro HelpDesk,
+ ma questa eventualità è quasi impossibile una volta testato l'applicativo.L'utente può proseguire  a produrre il documento essendo i due processi di produzione ed invio indipendenti. L'utente può proseguire  a produrre il documento essendo i due processi di produzione ed invio indipendenti.</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
+  </si>
+  <si>
+    <t>Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test:
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+  </si>
+  <si>
+    <t>2023-07-10T09:55:41Z</t>
+  </si>
+  <si>
+    <t>91f1883e83ed0a6d</t>
+  </si>
+  <si>
+    <t>Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403</t>
   </si>
   <si>
     <t>L'invio dei referti all'FSE avviente tramite la gestione di una coda interattiva richiamabile da apposito menù in varie momenti della giornata
  ad esempio a seguito di una sessione di validazioe e firma.
  Nella gestione documentale integrata nell'applicatico è stato aggiunto un campo a valorizzare lo stato del documento
  rispetto all'invio FSE TfseStato=(fseNessuno,fseDaInviare,fseInviato,fseDaSostituire,fseCancellato,fseValidato);.
- La coda viene popolata da tutti i documenti in stato FSEDaInviare e FSEDaSostituire ecc. 
+ La coda viene popolata da tutti i documenti in stato FSEDaInviare e FSEDaSostituire ecc.
  Premesso che il CDA viene creato al momento stesso della generazione del PDF per evitare che i dati del CDA non siano uguali a quelli del PDF,
- qualora l'errore si verifichasse nella trasmissione lo stato rimane in fseDaInviare ed il messaggio di errore contenuto 
- nella risposta visualizzato all'operatore che sta facendo l'invio. 
+ qualora l'errore si verifichasse nella trasmissione lo stato rimane in fseDaInviare ed il messaggio di errore contenuto
+ nella risposta visualizzato all'operatore che sta facendo l'invio.
  In tal caso è necessario correggere l'errore, creare un documento aggiorntao contenente il nuovo CDA e rinviare.
- Solo in caso di esito positivo lo stato passa ad FSEInviato. 
+ Solo in caso di esito positivo lo stato passa ad FSEInviato.
  I documenti in stato FSEDaInviare vengono riproposti automaticamente ad ogni nuovo invio batch in modo che non vengano bypassati.
  Non è possibile rinviare un documento errato senza che non se ne abbia contezza,corretto e ricreato, anche perchè si otterrebbe di nuovo
  lo stesso messaggio di errore.
- In caso di errore livello applicatico BUG, tipo errore di creazione del JWT ovviamente va fatta una segnalazione al nostro HelpDesk, 
- ma questa eventualità è quasi impossibile una volta testato l'applicativo.</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
-  </si>
-  <si>
-    <t>Precondizioni:
-Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
-Descrizione di Business del caso di test: 
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
-  </si>
-  <si>
-    <t>2023-07-10T09:55:41Z</t>
-  </si>
-  <si>
-    <t>91f1883e83ed0a6d</t>
-  </si>
-  <si>
-    <t>Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403</t>
+ In caso di errore livello applicatico BUG, tipo errore di creazione del JWT ovviamente va fatta una segnalazione al nostro HelpDesk,
+ ma questa eventualità è quasi impossibile una volta testato l'applicativo. L'utente può proseguire  a produrre il documento essendo i due processi di produzione ed invio indipendenti. L'utente può proseguire  a produrre il documento essendo i due processi di produzione ed invio indipendenti.</t>
   </si>
   <si>
     <t>VALIDAZIONE_LAB_TIMEOUT</t>
@@ -290,233 +304,254 @@
     <t>L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il suo @codeSystem con '2.16.840.1.113883.5.25'</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-06-28T15:24:23Z</t>
-  </si>
-  <si>
-    <t>4f59eb8385995ba1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e42b3e2b248b55df1fd7bce4b59a30e7247700ea7d8cd9d3bcb05750c5e55c2.dcf51c9534^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ERRORE-46| codice fiscale 'drovvn91m59h501j' cittadino ed operatore: 16 cifre [A-Z0-9]{16}</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT8_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-06-28T15:48:43Z</t>
-  </si>
-  <si>
-    <t>2fab0de118728f85</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.87cac20c4c4f25c1f632c61344cc37b78b4087e108bddbf7f9982c123df781d9.4589471bbd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>[ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il suo @codeSystem con '2.16.840.1.113883.5.25']</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT9_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Il programma non permette di effettuare un'accettazione con un'anagrafica senza il campo residenza compilato.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT10_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Il programma non permette di effettuare un'accettazione con un'anagrafica senza il campo nome compilato.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT11_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-06-29T07:51:36Z</t>
-  </si>
-  <si>
-    <t>68389c8362360e16</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2df439dd7558670ff4a8d4e27ca590fb13d7485ce39aee5abeb1b6b698ad3299.ee7db3398d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: U]</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT12_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-06-29T08:04:17Z</t>
-  </si>
-  <si>
-    <t>4ff3275b72abd3a2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.58ba03bebdadaa38b4dee350d6bb3b532d073bde3a8089ba250e803035585f38.80f51c24b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>[ERRORE-41| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT13_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-06-29T08:18:37Z</t>
-  </si>
-  <si>
-    <t>4772b6c17f9ab0e6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.fce3d8c1ee3f8a0621087503bc676b78fbbd7c094a3301d50b64de08795e1cc4.25e6e34739^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT14_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-06-29T08:39:04Z</t>
-  </si>
-  <si>
-    <t>49bb14934da0a821</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4c9ee06aeb9dbb59587a77d08bc3e4ab8c150aae2cd65a0d5d85bbe80ab1ab8.fef721e928^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT15_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-06-29T08:49:48Z</t>
-  </si>
-  <si>
-    <t>b4e96a095c220055</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.16f6e0620f4d06e04bb3ba6322e23c4f108dacf2a5b7e06e40a99655d4435c03.65720c66eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT16_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-06-29T10:45:17Z</t>
-  </si>
-  <si>
-    <t>c5b0b0605c1934bb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.6120d2d81e38a330d2e1f18b7eabde1a516d0849a5088763d31de4c4e8c827d3.c934c3ffab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>NO</t>
   </si>
   <si>
     <t>L'invio dei referti all'FSE avviente tramite la gestione di una coda interattiva richiamabile da apposito menù in varie momenti della giornata
  ad esempio a seguito di una sessione di validazioe e firma.
  Nella gestione documentale integrata nell'applicatico è stato aggiunto un campo a valorizzare lo stato del documento
  rispetto all'invio FSE TfseStato=(fseNessuno,fseDaInviare,fseInviato,fseDaSostituire,fseCancellato,fseValidato);.
- La coda viene popolata da tutti i documenti in stato FSEDaInviare e FSEDaSostituire ecc. 
+ La coda viene popolata da tutti i documenti in stato FSEDaInviare e FSEDaSostituire ecc.
  Premesso che il CDA viene creato al momento stesso della generazione del PDF per evitare che i dati del CDA non siano uguali a quelli del PDF,
- qualora l'errore si verifichasse nella trasmissione lo stato rimane in fseDaInviare ed il messaggio di errore contenuto 
- nella risposta visualizzato all'operatore che sta facendo l'invio. 
+ qualora l'errore si verifichasse nella trasmissione lo stato rimane in fseDaInviare ed il messaggio di errore contenuto
+ nella risposta visualizzato all'operatore che sta facendo l'invio.
  In tal caso è necessario correggere l'errore, creare un documento aggiorntao contenente il nuovo CDA e rinviare.
- Solo in caso di esito positivo lo stato passa ad FSEInviato. 
+ Solo in caso di esito positivo lo stato passa ad FSEInviato.
  I documenti in stato FSEDaInviare vengono riproposti automaticamente ad ogni nuovo invio batch in modo che non vengano bypassati.
  Non è possibile rinviare un documento errato senza che non se ne abbia contezza,corretto e ricreato, anche perchè si otterrebbe di nuovo
  lo stesso messaggio di errore.
- In caso di errore livello applicatico BUG, tipo errore di creazione del JWT ovviamente va fatta una segnalazione al nostro HelpDesk, 
- ma questa eventualità è quasi impossibile una volta testato l'applicativo.  L'utente può proseguire  a produrre il documento essendo i due processi di produzione ed invio indipendenti.</t>
+ In caso di errore livello applicatico BUG, tipo errore di creazione del JWT ovviamente va fatta una segnalazione al nostro HelpDesk,
+ ma questa eventualità è quasi impossibile una volta testato l'applicativo.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-06-28T15:24:23Z</t>
+  </si>
+  <si>
+    <t>4f59eb8385995ba1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e42b3e2b248b55df1fd7bce4b59a30e7247700ea7d8cd9d3bcb05750c5e55c2.dcf51c9534^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ERRORE-46| codice fiscale 'drovvn91m59h501j' cittadino ed operatore: 16 cifre [A-Z0-9]{16}</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-06-28T15:48:43Z</t>
+  </si>
+  <si>
+    <t>2fab0de118728f85</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.87cac20c4c4f25c1f632c61344cc37b78b4087e108bddbf7f9982c123df781d9.4589471bbd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-6| L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il suo @codeSystem con '2.16.840.1.113883.5.25']</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT9_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il programma non permette di effettuare un'accettazione con un'anagrafica senza il campo residenza compilato.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT10_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il programma non permette di effettuare un'accettazione con un'anagrafica senza il campo nome compilato.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT11_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-06-29T07:51:36Z</t>
+  </si>
+  <si>
+    <t>68389c8362360e16</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2df439dd7558670ff4a8d4e27ca590fb13d7485ce39aee5abeb1b6b698ad3299.ee7db3398d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: U]</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT12_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-06-29T08:04:17Z</t>
+  </si>
+  <si>
+    <t>4ff3275b72abd3a2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.58ba03bebdadaa38b4dee350d6bb3b532d073bde3a8089ba250e803035585f38.80f51c24b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-41| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-06-29T08:18:37Z</t>
+  </si>
+  <si>
+    <t>4772b6c17f9ab0e6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.fce3d8c1ee3f8a0621087503bc676b78fbbd7c094a3301d50b64de08795e1cc4.25e6e34739^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-06-29T08:39:04Z</t>
+  </si>
+  <si>
+    <t>49bb14934da0a821</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a4c9ee06aeb9dbb59587a77d08bc3e4ab8c150aae2cd65a0d5d85bbe80ab1ab8.fef721e928^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT15_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-06-29T08:49:48Z</t>
+  </si>
+  <si>
+    <t>b4e96a095c220055</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.16f6e0620f4d06e04bb3ba6322e23c4f108dacf2a5b7e06e40a99655d4435c03.65720c66eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT16_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-06-29T10:45:17Z</t>
+  </si>
+  <si>
+    <t>c5b0b0605c1934bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.6120d2d81e38a330d2e1f18b7eabde1a516d0849a5088763d31de4c4e8c827d3.c934c3ffab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-410]General"/>
+    <numFmt numFmtId="166" formatCode="[$€-410]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-410]&quot; &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -533,11 +568,52 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -554,257 +630,76 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Heading" xfId="2"/>
+    <cellStyle name="Heading1" xfId="3"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Result" xfId="4"/>
+    <cellStyle name="Result2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -820,56 +715,116 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1012,23 +967,30 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="11.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.5" style="2" customWidth="1"/>
+    <col min="4" max="1024" width="11.75" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1050,245 +1012,245 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="14.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" ht="18.75">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="27" t="s">
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" ht="14.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.75">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:20" ht="14.25">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1315,26 +1277,26 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="10" t="s">
         <v>34</v>
       </c>
       <c r="R10" s="10"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13" t="s">
+      <c r="S10" s="11"/>
+      <c r="T10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:20" ht="14.25">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1361,26 +1323,26 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="R11" s="10"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="13" t="s">
+      <c r="S11" s="11"/>
+      <c r="T11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:20" ht="14.25">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1407,26 +1369,26 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="R12" s="10"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="13" t="s">
+      <c r="S12" s="11"/>
+      <c r="T12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:20" ht="14.25">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1453,26 +1415,26 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="R13" s="10"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="13" t="s">
+      <c r="S13" s="11"/>
+      <c r="T13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:20" ht="14.25">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1499,29 +1461,29 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="R14" s="10"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="13" t="s">
+      <c r="S14" s="11"/>
+      <c r="T14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:20" ht="14.25">
+      <c r="A15" s="4">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="8">
@@ -1550,42 +1512,42 @@
         <v>61</v>
       </c>
       <c r="O15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>132</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="13" t="s">
+      <c r="S15" s="11"/>
+      <c r="T15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.25">
+      <c r="A16" s="4">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="F16" s="8">
         <v>45117</v>
       </c>
       <c r="G16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>60</v>
@@ -1601,38 +1563,38 @@
         <v>33</v>
       </c>
       <c r="N16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>132</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="S16" s="11"/>
+      <c r="T16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.25">
+      <c r="A17" s="4">
         <v>44</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1657,25 +1619,25 @@
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="S17" s="11"/>
+      <c r="T17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.25">
+      <c r="A18" s="4">
         <v>52</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="8">
@@ -1704,45 +1666,45 @@
         <v>79</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="S18" s="11"/>
+      <c r="T18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.25">
+      <c r="A19" s="4">
         <v>53</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>81</v>
+      <c r="D19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="F19" s="8">
         <v>45105</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>33</v>
@@ -1755,48 +1717,48 @@
         <v>33</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="S19" s="11"/>
+      <c r="T19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.25">
+      <c r="A20" s="4">
         <v>54</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>87</v>
+      <c r="D20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="F20" s="8">
         <v>45105</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>33</v>
@@ -1809,46 +1771,46 @@
         <v>33</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="S20" s="11"/>
+      <c r="T20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.25">
+      <c r="A21" s="4">
         <v>55</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="15"/>
+      <c r="D21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="13"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="10"/>
@@ -1857,36 +1819,36 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="S21" s="11"/>
+      <c r="T21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.25">
+      <c r="A22" s="4">
         <v>56</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="15"/>
+      <c r="D22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1895,38 +1857,38 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="S22" s="11"/>
+      <c r="T22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14.25">
+      <c r="A23" s="4">
         <v>57</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>99</v>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="F23" s="8">
         <v>45106</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>33</v>
@@ -1939,48 +1901,48 @@
         <v>33</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="S23" s="11"/>
+      <c r="T23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14.25">
+      <c r="A24" s="4">
         <v>58</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>105</v>
+      <c r="D24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F24" s="8">
         <v>45106</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>33</v>
@@ -1993,48 +1955,48 @@
         <v>33</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="S24" s="11"/>
+      <c r="T24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14.25">
+      <c r="A25" s="4">
         <v>59</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>111</v>
+      <c r="D25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F25" s="8">
         <v>45106</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>33</v>
@@ -2047,48 +2009,48 @@
         <v>33</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="S25" s="11"/>
+      <c r="T25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="14.25">
+      <c r="A26" s="4">
         <v>60</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>117</v>
+      <c r="D26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="F26" s="8">
         <v>45106</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>33</v>
@@ -2101,48 +2063,48 @@
         <v>33</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="S26" s="11"/>
+      <c r="T26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="14.25">
+      <c r="A27" s="4">
         <v>61</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>123</v>
+      <c r="D27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="F27" s="8">
         <v>45106</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>33</v>
@@ -2155,48 +2117,48 @@
         <v>33</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="S27" s="11"/>
+      <c r="T27" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="14.25">
+      <c r="A28" s="4">
         <v>62</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>128</v>
+      <c r="D28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="F28" s="8">
         <v>45106</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>33</v>
@@ -2209,23 +2171,20 @@
         <v>33</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M33" s="16"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2237,6 +2196,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>